--- a/SABYTable.xlsx
+++ b/SABYTable.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,561 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7707049388</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>784201001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+7 (800) 100-08-00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>info@rostelecom.ru</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>rostelecom.ru</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Осеевский Михаил Эдуардович</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Президент</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7707083893</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>773601001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+7 (800) 200-02-23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sbrf@sbrf.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sber.ru</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Греф Герман Оскарович</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Президент, председатель правления</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7736050003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>997250001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+7 (495) 719-11-21</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>gazprom@gazprom.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>gazprom.ru</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Миллер Алексей Борисович</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Председатель правления</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5504036333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>783801001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-31-52</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tender_drp@gazprom-neft.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gazprom-neft.ru</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Дюков Александр Валерьевич</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Председатель правления</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7825706086</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>784101001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+7 (800) 555-55-05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>service@hoegl.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5ka.ru</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5003021311</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>997250001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+7 (495) 719-54-11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mrg@mrg.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mrg.gazprom.ru</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Густов Сергей Вадимович</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Генеральный директор</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7702070139</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>784201001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+7 (800) 800-77-99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>info@vtb.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>vtb.ru</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Костин Андрей Леонидович</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Президент-председатель правления</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7708004767</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>997250001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+7 (495) 627-44-44</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>info@lukoil.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>lukoil.ru</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Воробьев Вадим Николаевич</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Главный исполнительный директор</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2310031475</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>997350001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+7 (800) 200-90-02</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>shpiney_ii@magnit.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>magnit-info.ru</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Мелешина Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Генеральный директор</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7708503727</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>997650001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+7 (391) 229-37-14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ticket@rzd.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>skzd.rzd.ru</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Белозёров Олег Валентинович</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Генеральный директор-председатель правления</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1644003838</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164401001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+7 (8553) 45-64-92</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>tatneft@tatneft.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>tatneft.ru</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Маганов Наиль Ульфатович</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Генеральный директор</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>8401005730</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>997550001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+7 (391) 943-11-10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gmk@nornik.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nornik.ru</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Потанин Владимир Олегович</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Президент</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4823006703</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>482301001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+7 (4742) 44-65-28</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>info@nlmk.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nlmk.ru</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Каратаев Сергей Михайлович</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Президент (председатель правления)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3528000597</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>997550001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+7 (8202) 53-09-00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>severstal@severstal.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>severstal.ru</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6316031581</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>891101001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+7 (34997) 2-47-07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>novatek@novatek.ru</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>novatek.ru</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Михельсон Леонид Викторович</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Председатель правления</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
